--- a/docentes/Miguel Cruz Nayeli Nayreth - Estadisticos 20242.xlsx
+++ b/docentes/Miguel Cruz Nayeli Nayreth - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -76,16 +76,34 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OREA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
   </si>
   <si>
     <t>KEVIN RAUL</t>
@@ -615,16 +633,19 @@
         <v>40</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -638,16 +659,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>89.73999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -661,16 +685,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>94.87</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -729,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,7 +791,7 @@
         <v>89.73999999999999</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -790,7 +817,7 @@
         <v>94.87</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,16 +862,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920425</v>
+        <v>21330051920053</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -853,29 +880,121 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>21330051920053</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>22330051920425</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>22330051920218</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Miguel Cruz Nayeli Nayreth - Estadisticos 20242.xlsx
+++ b/docentes/Miguel Cruz Nayeli Nayreth - Estadisticos 20242.xlsx
@@ -880,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -903,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -926,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
